--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.964</v>
+        <v>6.336</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.399</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.044</v>
+        <v>6.528</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.578</v>
+        <v>-20.891</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.972</v>
+        <v>-20.993</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.592</v>
+        <v>-21.584</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.078</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
